--- a/src/main/java/com/shoppersstacks/qa/testdata/LoginCredentials.xlsx
+++ b/src/main/java/com/shoppersstacks/qa/testdata/LoginCredentials.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Email</t>
   </si>
@@ -25,9 +27,6 @@
     <t>dinga420@gmail.com</t>
   </si>
   <si>
-    <t>Dingi@840</t>
-  </si>
-  <si>
     <t>Dinga@420</t>
   </si>
   <si>
@@ -37,14 +36,77 @@
     <t>invalid</t>
   </si>
   <si>
-    <t>dingi840@gamil.com</t>
+    <t>Chethan@123</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>chethan123@gmail.com</t>
+  </si>
+  <si>
+    <t>Chethan123@gmail.com</t>
+  </si>
+  <si>
+    <t>Chethan@12</t>
+  </si>
+  <si>
+    <t>Chethan</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>House/Office</t>
+  </si>
+  <si>
+    <t>Q-Spider, No.35, Phoenix Idiom, 1st floor 1st Cross</t>
+  </si>
+  <si>
+    <t>Street Info</t>
+  </si>
+  <si>
+    <t>HAL Old Airport Rd, next to Kemp Fort Mall, Murgesh Pallya, Bengaluru, Karnataka</t>
+  </si>
+  <si>
+    <t>Near Kemort Mall, Opposite to Envora Company</t>
+  </si>
+  <si>
+    <t>Landmark</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Banglore</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Adress </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +120,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,9 +154,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -382,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -403,39 +474,175 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="A5" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="67.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>560010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>9990004441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/com/shoppersstacks/qa/testdata/LoginCredentials.xlsx
+++ b/src/main/java/com/shoppersstacks/qa/testdata/LoginCredentials.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Email</t>
   </si>
@@ -24,12 +24,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>dinga420@gmail.com</t>
-  </si>
-  <si>
-    <t>Dinga@420</t>
-  </si>
-  <si>
     <t>Expected</t>
   </si>
   <si>
@@ -39,9 +33,6 @@
     <t>Chethan@123</t>
   </si>
   <si>
-    <t>valid</t>
-  </si>
-  <si>
     <t>chethan123@gmail.com</t>
   </si>
   <si>
@@ -100,6 +91,12 @@
   </si>
   <si>
     <t xml:space="preserve">Add Adress </t>
+  </si>
+  <si>
+    <t>chethan@123</t>
+  </si>
+  <si>
+    <t>Valid</t>
   </si>
 </sst>
 </file>
@@ -456,7 +453,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -474,51 +471,51 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -530,9 +527,10 @@
     <hyperlink ref="B4" r:id="rId5"/>
     <hyperlink ref="A5" r:id="rId6"/>
     <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="B3" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -552,68 +550,68 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>560010</v>
@@ -621,7 +619,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>9990004441</v>
